--- a/smaord.xlsx
+++ b/smaord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidar\Documents\Rwd_priv\twitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notandi\Documents\Rwd\twitter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E1980A-EB6E-40FE-82C9-09199494A01B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217E52F-2123-4866-A63C-81D70F7961C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23970" yWindow="840" windowWidth="17505" windowHeight="11550" xr2:uid="{C48D6942-1541-4AAC-8DEC-D9579D9899E3}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11325" xr2:uid="{C48D6942-1541-4AAC-8DEC-D9579D9899E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>umhverfis</t>
   </si>
@@ -259,18 +259,186 @@
   </si>
   <si>
     <t>oj</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>ég</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>það</t>
+  </si>
+  <si>
+    <t>ekki</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>þetta</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>eru</t>
+  </si>
+  <si>
+    <t>hann</t>
+  </si>
+  <si>
+    <t>því</t>
+  </si>
+  <si>
+    <t>bara</t>
+  </si>
+  <si>
+    <t>svo</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>mér</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>auka</t>
+  </si>
+  <si>
+    <t>ã</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>þegar</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>mig</t>
+  </si>
+  <si>
+    <t>þar</t>
+  </si>
+  <si>
+    <t>sé</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>þú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hefur </t>
+  </si>
+  <si>
+    <t>hafa</t>
+  </si>
+  <si>
+    <t>allir</t>
+  </si>
+  <si>
+    <t>verið</t>
+  </si>
+  <si>
+    <t>hvað</t>
+  </si>
+  <si>
+    <t>fara</t>
+  </si>
+  <si>
+    <t>eins</t>
+  </si>
+  <si>
+    <t>verður</t>
+  </si>
+  <si>
+    <t>þessu</t>
+  </si>
+  <si>
+    <t>sér</t>
+  </si>
+  <si>
+    <t>svona</t>
+  </si>
+  <si>
+    <t>allt</t>
+  </si>
+  <si>
+    <t>væri</t>
+  </si>
+  <si>
+    <t>hún</t>
+  </si>
+  <si>
+    <t>líka</t>
+  </si>
+  <si>
+    <t>alltaf</t>
+  </si>
+  <si>
+    <t>nú</t>
+  </si>
+  <si>
+    <t>mjög</t>
+  </si>
+  <si>
+    <t>mikið</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>hér</t>
+  </si>
+  <si>
+    <t>þeir</t>
+  </si>
+  <si>
+    <t>hef</t>
+  </si>
+  <si>
+    <t>sig</t>
+  </si>
+  <si>
+    <t>taka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,8 +461,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C468F4-7270-472D-A478-2BDAE98B3C04}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1393,470 @@
         <v>75</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
